--- a/Test Exel automate.xlsx
+++ b/Test Exel automate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nessy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nessy\git\TestAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4250C76-844F-419D-A83F-0DFE1D18E814}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B1BA8-B1D9-4904-BB25-89599D700BF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D237E455-5216-47E4-8D78-4DA6CD3F3D86}"/>
   </bookViews>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893D5B5-EF77-4417-83FA-C2FB340BE1B5}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
